--- a/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
@@ -2,34 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5279A58-A58F-457C-9895-38E519F212AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9212B76-F8E4-442F-80BF-6A1D53B7C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20370" yWindow="1230" windowWidth="12915" windowHeight="13560" tabRatio="783" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigName" sheetId="1" r:id="rId1"/>
     <sheet name="ConfigWithCheck" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -259,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>说明</t>
   </si>
@@ -542,6 +529,27 @@
   </si>
   <si>
     <t>lists</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>ID:Hero</t>
+  </si>
+  <si>
+    <t>BETWEEN:[1;10]</t>
+  </si>
+  <si>
+    <t>IN:[1;2;3]</t>
+  </si>
+  <si>
+    <t>IN:[男;女]</t>
+  </si>
+  <si>
+    <t>ID:Hero|BETWEEN:[10;100]</t>
+  </si>
+  <si>
+    <t>1:{ID:Hero}#2:{BETWEEN:[1;10]}</t>
   </si>
   <si>
     <t>男</t>
@@ -1245,7 +1253,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1615,8 +1622,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD80E3-59D2-4EAA-B05A-FDB74AA21C6B}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -1703,193 +1709,193 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1898,42 +1904,68 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
         <v>91</v>
       </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9212B76-F8E4-442F-80BF-6A1D53B7C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F76DEB-7FC9-43BB-94EE-983372E3D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20370" yWindow="1230" windowWidth="12915" windowHeight="13560" tabRatio="783" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigName" sheetId="1" r:id="rId1"/>
     <sheet name="ConfigWithCheck" sheetId="2" r:id="rId2"/>
+    <sheet name="Hero2" sheetId="3" r:id="rId3"/>
+    <sheet name="Monster2" sheetId="4" r:id="rId4"/>
+    <sheet name="Group2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -246,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
   <si>
     <t>说明</t>
   </si>
@@ -486,12 +489,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>英雄id</t>
-  </si>
-  <si>
     <t>值</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>二维数组</t>
   </si>
   <si>
-    <t>heroId</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -534,71 +528,476 @@
     <t>LimitState</t>
   </si>
   <si>
-    <t>ID:Hero</t>
-  </si>
-  <si>
     <t>BETWEEN:[1;10]</t>
   </si>
   <si>
     <t>IN:[1;2;3]</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>lists1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>lists2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaint</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:Hero2|BETWEEN:[1;10]</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>IN:[男;女]</t>
-  </si>
-  <si>
-    <t>ID:Hero|BETWEEN:[10;100]</t>
-  </si>
-  <si>
-    <t>1:{ID:Hero}#2:{BETWEEN:[1;10]}</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>10|11</t>
-  </si>
-  <si>
-    <t>10;1|11;2|12;3|13;5</t>
-  </si>
-  <si>
-    <t>11|12</t>
-  </si>
-  <si>
-    <t>20;1|11;2|12;3|13;5</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>12|13</t>
-  </si>
-  <si>
-    <t>13|14</t>
-  </si>
-  <si>
-    <t>10;1|20;2|12;3|13;5</t>
-  </si>
-  <si>
-    <t>14|15</t>
-  </si>
-  <si>
-    <t>10;1|11;2|91;3|13;5</t>
-  </si>
-  <si>
-    <t>15|16</t>
-  </si>
-  <si>
-    <t>10;1|93;2|12;3|13;5</t>
-  </si>
-  <si>
-    <t>16;1|11;2|12;3|13;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_ALIAS:Hero2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:Hero2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:{ID:Hero2}#2:{BETWEEN:[1;10]}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:{TUPLE:[type];[1:ID:Hero2;2:ID:Monster2;3:ID:Group2]}#2:{BETWEEN:[1;10]}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:{IN:[1;2;3]}#2:{TUPLE:[1];[1:ID:Hero2;2:ID:Monster2;3:ID:Group2]}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试专用</t>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|1;2|1;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|2;2|1;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|1;2|1;2|1;9</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1|1;2|1;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1|102;2|105;3|109;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;102|2;101|2;103|3;202</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂飞</t>
+  </si>
+  <si>
+    <t>2|3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1|1;2|2;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;1|202;2|209;3|203;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;201|3;201|3;203|3;202</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂凌</t>
+  </si>
+  <si>
+    <t>3|4</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|2;2|2;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>109;1|105;2|102;3|103;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;201|2;102|1;3|3;202</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|1;2|9;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1|101;2|101;3|103;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;101|3;202|1;1|3;202</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>5|6</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|1;2|2;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>210;1|201;2|202;3|204;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|2;102|1;3|1;3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥尔弥尔</t>
+  </si>
+  <si>
+    <t>1;1|9;2|2;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1|102;2|103;3|103;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;201|3;202|2;103|1;2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>土山奥</t>
+  </si>
+  <si>
+    <t>6;1|1;2|2;3|3;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;1|101;2|102;3|103;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1|1;2|2;103|3;203</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾琳</t>
+  </si>
+  <si>
+    <t>9|7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>109;1|110;2|102;3|103;5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id(10-&gt;99)</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别
+(1男，2女，3妖怪)</t>
+  </si>
+  <si>
+    <t>战斗模型ID</t>
+  </si>
+  <si>
+    <t>技能组</t>
+  </si>
+  <si>
+    <t>立绘</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>战斗脚本</t>
+  </si>
+  <si>
+    <t>Boss类型
+0：非Boss
+1：Boss</t>
+  </si>
+  <si>
+    <t>key_alias</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>char_script</t>
+  </si>
+  <si>
+    <t>boss_type</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Skill</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>1001|1002|1003</t>
+  </si>
+  <si>
+    <t>hero_901</t>
+  </si>
+  <si>
+    <t>1101|1102|1103|1104</t>
+  </si>
+  <si>
+    <t>hero_11</t>
+  </si>
+  <si>
+    <t>1201|1202|1203|1204</t>
+  </si>
+  <si>
+    <t>hero_12</t>
+  </si>
+  <si>
+    <t>1301|1302|1303|1304</t>
+  </si>
+  <si>
+    <t>hero_13</t>
+  </si>
+  <si>
+    <t>1401|1402|1403</t>
+  </si>
+  <si>
+    <t>hero_14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1501|1502|1503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1504</t>
+    </r>
+  </si>
+  <si>
+    <t>hero_15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01|1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02|1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hero_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>测试用-输出角色</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101|9102</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,8 +1128,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,8 +1180,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39817499313333538"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -853,6 +1296,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -865,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +1403,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,350 +2122,1531 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD80E3-59D2-4EAA-B05A-FDB74AA21C6B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="27" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" s="27">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>11</v>
+      <c r="B6" s="27">
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="27">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E656B430-9F05-4D40-9767-B7A689A0F986}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="12">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>84</v>
+      <c r="F6" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
+      <c r="F7" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="12">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>88</v>
+      <c r="F8" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
+      <c r="E9" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1901</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
         <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="40">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>91</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ED4CC7-CA0F-42EF-B116-11E9DF28DEFA}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1901</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="40">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>91</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E23A54-E765-4573-8D39-ACF334862B1E}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="48" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1901</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
+      <c r="D11" s="12">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>91</v>
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>209</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>91</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
+      <c r="D14" s="39">
+        <v>100</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/____说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F76DEB-7FC9-43BB-94EE-983372E3D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0269F-4CD3-47E7-B557-66469F0CD64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigName" sheetId="1" r:id="rId1"/>
@@ -248,8 +248,73 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ADMIN</author>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{61663069-C1CD-4E26-A495-8C55DA446F57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>怪物ID规范:
+1.队长
+2.主线，推图副本
+3.装备副本
+4.支线副本</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{D5FF1C39-623B-4739-8024-0E10AEAE40B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.角色
+2.SCP
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="189">
   <si>
     <t>说明</t>
   </si>
@@ -798,9 +863,6 @@
   </si>
   <si>
     <t>boss_type</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:Skill</t>
   </si>
   <si>
     <t>IN:[0;1]</t>
@@ -991,6 +1053,91 @@
       </rPr>
       <t>101|9102</t>
     </r>
+  </si>
+  <si>
+    <t>ID:Skill$Null</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>Id1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:Hero2$Monster2$Null$Group2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:Hero2$Monster2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUPLE:[type];[1:ID:Hero2;2:ID:Monster2;3:ID:Group2]</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>id(1000-&gt;9999)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>职业(0：无职业，用于队长1:输出，2:肉盾，3:辅助，4:治疗)</t>
+  </si>
+  <si>
+    <t>种族（1:对位,2:亡语,3:AOE,4:融合,5:刺客）</t>
+  </si>
+  <si>
+    <t>character_type</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>IN:[1;2]</t>
+  </si>
+  <si>
+    <t>聂总</t>
+  </si>
+  <si>
+    <t>迷幻映像</t>
+  </si>
+  <si>
+    <t>电视娘队长1-4</t>
+  </si>
+  <si>
+    <t>电视娘队长1-5</t>
+  </si>
+  <si>
+    <t>主线第二章土山奥</t>
+  </si>
+  <si>
+    <t>测试用-平衡角色</t>
+  </si>
+  <si>
+    <t>测试用-防御角色</t>
+  </si>
+  <si>
+    <t>电视娘分身1</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1290,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,6 +1354,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.3979918820764794"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14859462263863032"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,13 +1606,44 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2122,388 +2312,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD80E3-59D2-4EAA-B05A-FDB74AA21C6B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>91</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>92</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>96</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>97</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>202</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="F7" s="27">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>102</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>103</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="B8" s="27">
+      <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>201</v>
+      </c>
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="B9" s="27">
+      <c r="F9" s="27">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>94</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>205</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="B10" s="27">
+      <c r="F10" s="27">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
         <v>116</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>101</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="B11" s="27">
+      <c r="F11" s="27">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>118</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>114</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>120</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="B12" s="27">
+      <c r="F12" s="27">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>122</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>124</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="B13" s="27">
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>126</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>128</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2517,9 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E656B430-9F05-4D40-9767-B7A689A0F986}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2629,14 +2970,14 @@
         <v>73</v>
       </c>
       <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
-        <v>146</v>
+      <c r="F4" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -2656,10 +2997,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="J5" s="12">
         <v>0</v>
@@ -2682,10 +3023,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" t="s">
         <v>150</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -2708,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>153</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -2734,10 +3075,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
         <v>154</v>
-      </c>
-      <c r="H8" t="s">
-        <v>155</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2763,7 +3104,7 @@
         <v>1901</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="12">
         <v>0</v>
@@ -2786,10 +3127,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
         <v>154</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -2812,10 +3153,10 @@
         <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
         <v>156</v>
-      </c>
-      <c r="H11" t="s">
-        <v>157</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -2838,10 +3179,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
         <v>158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>159</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -2864,10 +3205,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" t="s">
         <v>160</v>
-      </c>
-      <c r="H13" t="s">
-        <v>161</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
@@ -2878,10 +3219,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="40">
         <v>1</v>
@@ -2890,11 +3231,11 @@
         <v>91</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="12">
@@ -2908,48 +3249,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ED4CC7-CA0F-42EF-B116-11E9DF28DEFA}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ED4CC7-CA0F-42EF-B116-11E9DF28DEFA}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I1" s="31"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
@@ -2957,29 +3294,25 @@
         <v>18</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>145</v>
-      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
@@ -2989,7 +3322,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>27</v>
@@ -3000,18 +3333,14 @@
       <c r="F3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="G3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
@@ -3020,284 +3349,257 @@
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
-        <v>146</v>
-      </c>
+      <c r="F4" s="37"/>
       <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="38" t="s">
-        <v>147</v>
-      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" s="39">
-        <v>100</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
+      <c r="H5" s="12">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="H8" s="12">
         <v>13</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <v>11</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1901</v>
-      </c>
-      <c r="H9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
+      <c r="H9" s="12">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="H10" s="12">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="40">
+        <v>107</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="39">
+        <v>91</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="40">
+        <v>108</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39">
+        <v>92</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="40">
+        <v>109</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39">
+        <v>93</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="44">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="44">
         <v>2</v>
       </c>
-      <c r="E11" s="12">
-        <v>14</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>15</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
-        <v>10</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="40">
+      <c r="E14" s="44">
         <v>1</v>
       </c>
-      <c r="E14" s="39">
-        <v>91</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40" t="s">
-        <v>149</v>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45">
+        <v>9991</v>
       </c>
       <c r="I14" s="40"/>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3305,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E23A54-E765-4573-8D39-ACF334862B1E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3407,14 +3709,14 @@
         <v>73</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
-        <v>146</v>
+      <c r="E4" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -3431,10 +3733,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
         <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -3454,10 +3756,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
         <v>152</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -3477,10 +3779,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
         <v>154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>155</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -3503,7 +3805,7 @@
         <v>1901</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -3523,10 +3825,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
         <v>154</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -3546,10 +3848,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
         <v>156</v>
-      </c>
-      <c r="G10" t="s">
-        <v>157</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
@@ -3569,10 +3871,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
         <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
@@ -3592,10 +3894,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
         <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>161</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
@@ -3606,7 +3908,7 @@
         <v>209</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="40">
         <v>1</v>
@@ -3615,11 +3917,11 @@
         <v>91</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="12">
@@ -3640,10 +3942,10 @@
         <v>100</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
